--- a/gannt.xlsx
+++ b/gannt.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -296,6 +296,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gannt chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -801,11 +826,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-38848736"/>
-        <c:axId val="-38848192"/>
+        <c:axId val="-1105584032"/>
+        <c:axId val="-1105588384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-38848736"/>
+        <c:axId val="-1105584032"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -848,7 +873,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-38848192"/>
+        <c:crossAx val="-1105588384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -856,7 +881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-38848192"/>
+        <c:axId val="-1105588384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -907,7 +932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-38848736"/>
+        <c:crossAx val="-1105584032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -983,7 +1008,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait" horizontalDpi="-1" verticalDpi="-1"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1538,15 +1563,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>144808</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>187152</xdr:rowOff>
+      <xdr:colOff>12285</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>298174</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>132522</xdr:rowOff>
+      <xdr:colOff>165651</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>144153</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
